--- a/data/Additional data/15_evaluation.xlsx
+++ b/data/Additional data/15_evaluation.xlsx
@@ -1512,8 +1512,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC8664AFD598E6478EDF39439B3209D1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24a971328693f11ea2eef1ee3bd135a8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="864f0d85-d242-45ca-af3f-9d84e3e0da4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6af75f9b6d1d85724e3030b8c9723ff5" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC8664AFD598E6478EDF39439B3209D1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06c386bccaa1a0dfc607decf1b28aafb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="864f0d85-d242-45ca-af3f-9d84e3e0da4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3be3a601b7e462793c0670d7272fb9ca" ns2:_="">
     <xsd:import namespace="864f0d85-d242-45ca-af3f-9d84e3e0da4d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1524,6 +1524,7 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1547,6 +1548,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1660,7 +1666,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9DEC71-1ED1-4A97-B7EB-F8C5D10A0A64}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F936727F-0FC5-4FA0-8501-7CAB82C74DF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
